--- a/apps/core/fimport/static/fimport/template/import-employees.xlsx
+++ b/apps/core/fimport/static/fimport/template/import-employees.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71F1AC-CF89-4FA9-B574-66FAE2F5DE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389EDEE9-996F-42CC-A59B-35776F628482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
-    <sheet name="#hr.employees" sheetId="1" r:id="rId1"/>
+    <sheet name="#hr.employees" sheetId="3" r:id="rId1"/>
+    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,15 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
   <si>
+    <t>Họ (*)</t>
+  </si>
+  <si>
     <t>Tên (*)</t>
   </si>
   <si>
-    <t>Họ (*)</t>
+    <t>Mã (*, định danh)</t>
   </si>
   <si>
     <t>Email (*)</t>
@@ -57,14 +61,323 @@
     <t>Vai trò</t>
   </si>
   <si>
-    <t>Mã (*, định danh)</t>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>#account.users</t>
+  </si>
+  <si>
+    <t>Tên sheet</t>
+  </si>
+  <si>
+    <t>Tên tính năng tiếng Anh</t>
+  </si>
+  <si>
+    <t>Tên tính năng tiếng Việt</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Mô tả thêm</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>#hr.roles</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Vai trò của nhóm người dùng trong tổ chức (có cùng quyền hạn)</t>
+  </si>
+  <si>
+    <t>#hr.groups.level</t>
+  </si>
+  <si>
+    <t>Group Level</t>
+  </si>
+  <si>
+    <t>Cấp bậc nhóm</t>
+  </si>
+  <si>
+    <t>#hr.groups</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
+  </si>
+  <si>
+    <t>Các nhóm trong tổ chức - còn được gọi là phòng ban</t>
+  </si>
+  <si>
+    <t>Cấp bậc của các nhóm - còn được gọi là cấp bậc của phòng ban</t>
+  </si>
+  <si>
+    <t>#hr.employees</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Nhân viên của công ty. Nếu nhân viên cho quyền đăng nhập vào hệ thống thì cung cấp #account.users và liên kết chúng với nhân viên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phụ lục </t>
+  </si>
+  <si>
+    <t>Dữ liệu import</t>
+  </si>
+  <si>
+    <t>Ký hiệu</t>
+  </si>
+  <si>
+    <t>Bắt buộc</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>(*, định danh)</t>
+  </si>
+  <si>
+    <t>Bắt buộc và sử dụng dữ liệu này để định danh cho dòng dữ liệu này - sử dụng mã này ở các bảng liên kết tới nó</t>
+  </si>
+  <si>
+    <t>Là số thứ tự cho dòng dữ liệu. Sử dụng để xác định các dữ liệu đã được import,… luôn giữ cho chúng tăng dần để việc quản trị dữ liệu import của bạn dễ dàng hơn</t>
+  </si>
+  <si>
+    <t>Mô tả yêu cầu dữ liệu</t>
+  </si>
+  <si>
+    <t>Mô tả tên trang tính của từng tính năng</t>
+  </si>
+  <si>
+    <t>Mô tả tên trang tính</t>
+  </si>
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>- Mã người dùng tại #account.users 
+- Người dùng liên kết với nhân viên
+- Ví dụ: anv</t>
+  </si>
+  <si>
+    <t>- Mã của phòng ban tại #hr.groups
+- Phòng ban mà nhân viên thuộc về
+- Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Mã của vai trò tại #hr.roles
+- Danh sách mã vai trò liên kết với nhau bằng dấu phẩy.
+- Ví dụ: QL</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Tên của nhân viên
+- Ví dụ: Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Họ của nhân viên
+- Ví dụ: A</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 25
+- Định dạng số điện thoại ở VN
+- Số điện thoại liên lạc của nhân viên
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 150
+- Địa chỉ thư điện tử của nhân viên
+- Ví dụ: anv@example.com</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 150
+- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang.
+- Mã định danh cho nhân viên
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Định dạng ngày/tháng/năm (dd/mm/YYYY)
+- Ví dụ: 31/01/1970</t>
+  </si>
+  <si>
+    <t>Lưu ý</t>
+  </si>
+  <si>
+    <r>
+      <t>Khuyến cáo nên sử nhập dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> với các </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nhóm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vai trò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dữ liệu trống</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+Sau đó sử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mã nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho các trường </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thành viên của nhóm và vai trò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Việc này nhân viên sẽ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tự động cập nhật các dữ liệu nhóm và vai trò liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +393,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -112,17 +462,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,21 +847,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA1278D-5766-4C30-B51D-59CB3DF80128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2B7B4-0119-40B2-9AE3-A031B16A0EEC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="3" customWidth="1"/>
-    <col min="7" max="11" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -456,43 +874,378 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>IF(ISBLANK(B2), "", ROW(A2) -1)</f>
-        <v/>
+    </row>
+    <row r="2" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" location="'Instructions - Chỉ dẫn'!A26" display="Mô tả tên trang tính" xr:uid="{4E5C23A0-A79B-4E2E-B3C3-97237D68867F}"/>
+    <hyperlink ref="A2" location="'Instructions - Chỉ dẫn'!A16" display="Mô tả yêu cầu dữ liệu" xr:uid="{5511E882-0789-4D6F-AEAA-34360E5BE74D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/apps/core/fimport/static/fimport/template/import-employees.xlsx
+++ b/apps/core/fimport/static/fimport/template/import-employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389EDEE9-996F-42CC-A59B-35776F628482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F88921-0B97-4C6F-8720-FF590A4B146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Ngày tham gia</t>
   </si>
   <si>
-    <t>Người sinh</t>
-  </si>
-  <si>
     <t>Phòng ban</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,48 +895,48 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -964,17 +964,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1024,23 +1024,23 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1098,95 +1098,95 @@
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E32" s="4"/>
     </row>

--- a/apps/core/fimport/static/fimport/template/import-employees.xlsx
+++ b/apps/core/fimport/static/fimport/template/import-employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F88921-0B97-4C6F-8720-FF590A4B146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4584016-B7C5-400F-912D-C4E58CCB0D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
@@ -210,10 +210,6 @@
 - Ví dụ: EMP0001</t>
   </si>
   <si>
-    <t>- Định dạng ngày/tháng/năm (dd/mm/YYYY)
-- Ví dụ: 31/01/1970</t>
-  </si>
-  <si>
     <t>Lưu ý</t>
   </si>
   <si>
@@ -371,6 +367,10 @@
   </si>
   <si>
     <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>- Định dạng ngày-tháng-năm (dd-mm-YYYY)
+- Ví dụ: 31-01-1970</t>
   </si>
 </sst>
 </file>
@@ -851,25 +851,25 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="19.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="19.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -904,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
@@ -927,10 +927,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>46</v>
@@ -952,68 +952,68 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="24.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1032,10 +1032,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1068,26 +1068,26 @@
       <c r="D20" s="16"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>42</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>12</v>
       </c>
@@ -1110,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1142,10 +1142,10 @@
         <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1190,42 +1190,42 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
